--- a/statistics/SPSS/roiObjectLvl_Within-PLI_gamma_A/roiObjectLvl_Within-PLI_gamma_A.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_gamma_A/roiObjectLvl_Within-PLI_gamma_A.xlsx
@@ -81,7 +81,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="16.42578125" customWidth="true"/>
     <col min="4" max="4" width="16.42578125" customWidth="true"/>
     <col min="5" max="5" width="16.42578125" customWidth="true"/>
     <col min="6" max="6" width="16.42578125" customWidth="true"/>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.011608234434321407</v>
+        <v>0.010640881564794646</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0026692674914018388</v>
+        <v>0.0024468285337850559</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0069756875507225868</v>
+        <v>-0.0063943802548290518</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0084814426429332679</v>
+        <v>0.0077746557560221807</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.0034995585849622313</v>
+        <v>-0.0032079287028820569</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0068292000247849594</v>
+        <v>0.0062601000227195669</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0099886536374174661</v>
+        <v>0.0091562658342993486</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0018509116426544125</v>
+        <v>0.0016966690057665934</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.005271278471863039</v>
+        <v>-0.0048320052658745449</v>
       </c>
       <c r="D3" s="0">
-        <v>0.010876023663747431</v>
+        <v>0.0099696883584351192</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0078885309064337383</v>
+        <v>-0.0072311533308975495</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0041190638934999468</v>
+        <v>-0.0037758085690416388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0039055646472526684</v>
+        <v>0.0035801009266482609</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0016909863591786367</v>
+        <v>0.0015500708292470466</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0061324809608562791</v>
+        <v>-0.0056214408807848948</v>
       </c>
       <c r="D4" s="0">
-        <v>0.0050108908804561425</v>
+        <v>0.0045933166404180381</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00030998114522143294</v>
+        <v>-0.00028414938311965843</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0046076785207219695</v>
+        <v>0.0042237053106617961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0061152787860862812</v>
+        <v>0.0056056722205790332</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0016839769804196381</v>
+        <v>-0.0015436455653846382</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0053551203436787709</v>
+        <v>-0.0049088603150388987</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.017784105564079222</v>
+        <v>-0.016302096767072588</v>
       </c>
       <c r="E5" s="0">
-        <v>0.013295922782815328</v>
+        <v>0.01218792921758069</v>
       </c>
       <c r="F5" s="0">
-        <v>0.015560913549753391</v>
+        <v>0.014264170753940625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0035063730715905184</v>
+        <v>-0.0032141753156246233</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0066058017787797019</v>
+        <v>-0.0060553182972147845</v>
       </c>
       <c r="C6" s="0">
-        <v>0.014590637628469377</v>
+        <v>0.013374751159430209</v>
       </c>
       <c r="D6" s="0">
-        <v>0.010303005699425188</v>
+        <v>0.009444421891139726</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0029077314791599862</v>
+        <v>0.0026654205225633831</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.004528832427383167</v>
+        <v>-0.0041514297251012688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0011468771684528256</v>
+        <v>-0.00105130407108181</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.017166410621421019</v>
+        <v>-0.015735876402969279</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.0065456863875835991</v>
+        <v>-0.0060002125219516256</v>
       </c>
       <c r="D7" s="0">
-        <v>0.011895351025785816</v>
+        <v>0.010904071773636975</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0028673491794609374</v>
+        <v>-0.002628403414505931</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0064194144939486442</v>
+        <v>0.0058844632861195512</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0022078909546939252</v>
+        <v>-0.0020239000418027508</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0037618715154947024</v>
+        <v>0.0034483822225368221</v>
       </c>
       <c r="C8" s="0">
-        <v>0.007204525786306315</v>
+        <v>0.0066041486374474323</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0036978587703225818</v>
+        <v>-0.0033897038727956907</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0065714096769997343</v>
+        <v>0.0060237922039163838</v>
       </c>
       <c r="F8" s="0">
-        <v>0.002609994004921512</v>
+        <v>0.0023924945045113999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0046332834746866114</v>
+        <v>-0.0042471765184627364</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.003210280669707688</v>
+        <v>-0.0029427572805653668</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0058866641638090633</v>
+        <v>0.0053961088168250071</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0018059426962118708</v>
+        <v>-0.0016554474715275991</v>
       </c>
       <c r="E9" s="0">
-        <v>0.008045043385661782</v>
+        <v>0.0073746231035232979</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0036360756231084146</v>
+        <v>-0.0033330693211826856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0064988841386356688</v>
+        <v>0.0059573104604160321</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0071200729095466375</v>
+        <v>-0.0065267335004177973</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0073245949022346657</v>
+        <v>0.0067142119937151079</v>
       </c>
       <c r="D10" s="0">
-        <v>-1.6660155498310347e-05</v>
+        <v>-1.5271809206768294e-05</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0087703692776156805</v>
+        <v>-0.008039505171147654</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0043783521313664198</v>
+        <v>0.0040134894537525168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.00085628944324597778</v>
+        <v>0.00078493198964210698</v>
       </c>
       <c r="B11" s="0">
-        <v>0.005974257118421894</v>
+        <v>0.0054764023585534005</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.0055210489993098577</v>
+        <v>-0.0050609615827007237</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0038727886553972801</v>
+        <v>-0.00355005626744756</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0033094924399272307</v>
+        <v>0.0030337014032665865</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0013542549774433754</v>
+        <v>-0.0012414003959897724</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0050981097891853178</v>
+        <v>-0.0046732673067532426</v>
       </c>
       <c r="B12" s="0">
-        <v>0.010974530789384179</v>
+        <v>0.010059986556935477</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.005158154847595825</v>
+        <v>-0.0047283086102961613</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.0016782734174038694</v>
+        <v>-0.0015384172992868872</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0041246516698981994</v>
+        <v>-0.0037809306974066481</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0033090902656119636</v>
+        <v>0.0030333327434776125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0025368097450476634</v>
+        <v>-0.0023254089329603767</v>
       </c>
       <c r="B13" s="0">
-        <v>0.016082195973500357</v>
+        <v>0.014742012975708624</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.0010432867412272229</v>
+        <v>-0.00095634617945833389</v>
       </c>
       <c r="D13" s="0">
-        <v>0.007418125352908006</v>
+        <v>0.0067999482401656375</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.0065167655747365716</v>
+        <v>-0.0059737017768418665</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0016074695708562792</v>
+        <v>0.0014735137732849179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.009923273950189021</v>
+        <v>-0.0090963344543399938</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0032990359077315623</v>
+        <v>0.0030241162487538997</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.0011688626595459106</v>
+        <v>-0.0010714574379170894</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0075827396799263702</v>
+        <v>0.0069508447065991241</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0069199634417025646</v>
+        <v>-0.0063432998215606773</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0077540731361548099</v>
+        <v>-0.0071079003748085456</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.01098354655666911</v>
+        <v>0.010068251010280027</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0019620363823262543</v>
+        <v>-0.0017985333504657308</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.002234222861878965</v>
+        <v>-0.0020480376233890929</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0058864177857312627</v>
+        <v>-0.0053958829702537014</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0051806804887483682</v>
+        <v>0.0047489571146860088</v>
       </c>
       <c r="F15" s="0">
-        <v>0.0032072367476093933</v>
+        <v>0.0029399670186419369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0022550547912867092</v>
+        <v>-0.0020671335586794626</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.00042666778936800709</v>
+        <v>-0.00039111214025405738</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.0076657467961815939</v>
+        <v>-0.0070269345631664981</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0046988353624509149</v>
+        <v>-0.0043072657489133526</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0024706704548601299</v>
+        <v>-0.0022647812502885334</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.0025139758728846828</v>
+        <v>-0.0023044778834776236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0072960453395235769</v>
+        <v>0.0066880415612299848</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.0044451425948647261</v>
+        <v>-0.0040747140452926656</v>
       </c>
       <c r="C17" s="0">
-        <v>0.00046121785252220548</v>
+        <v>0.00042278303147866292</v>
       </c>
       <c r="D17" s="0">
-        <v>-4.023917067400018e-05</v>
+        <v>-3.688590645109513e-05</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0076168771820945835</v>
+        <v>0.0069821374169200534</v>
       </c>
       <c r="F17" s="0">
-        <v>0.0011657620353273113</v>
+        <v>0.0010686151990500492</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.002135196357164304</v>
+        <v>0.0019572633274006351</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0028369436672803922</v>
+        <v>-0.0026005316950070134</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0029213193109185742</v>
+        <v>0.0026778760350087416</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.009097357562830713</v>
+        <v>-0.008339244432594789</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0060284148793465636</v>
+        <v>0.0055260469727343442</v>
       </c>
       <c r="F18" s="0">
-        <v>0.0044335696509609918</v>
+        <v>0.004064105513380864</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0041355584833845938</v>
+        <v>0.0037909286097692202</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0054333150252295626</v>
+        <v>0.0049805387731270967</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0025794898983305115</v>
+        <v>0.0023645324068029411</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0020368871492844887</v>
+        <v>0.0018671465535107651</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.00065167281429276414</v>
+        <v>-0.00059736674643508236</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.00086114602243633764</v>
+        <v>-0.00078938385389999699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0064006616801648153</v>
+        <v>-0.0058672732068177219</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.0015818442591898074</v>
+        <v>-0.0014500239042573027</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.0060865731155586023</v>
+        <v>-0.0055793586892620567</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0081074793351008922</v>
+        <v>0.0074318560571757369</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0055677012198751263</v>
+        <v>-0.005103726118218882</v>
       </c>
       <c r="F20" s="0">
-        <v>0.0030663648858753056</v>
+        <v>0.0028108344787190209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040193518454388066</v>
+        <v>-0.0036844058583188899</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.01310929514590839</v>
+        <v>-0.012016853883749401</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.0080227036748775765</v>
+        <v>-0.0073541450353044741</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0073231497716623462</v>
+        <v>-0.0067128872906904724</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.0030639015192790719</v>
+        <v>-0.0028085763926724572</v>
       </c>
       <c r="F21" s="0">
-        <v>0.00046223959267435721</v>
+        <v>0.00042371962661819085</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.00081324058306150859</v>
+        <v>0.00074547053447301947</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0010640610731190436</v>
+        <v>-0.00097538931702580156</v>
       </c>
       <c r="C22" s="0">
-        <v>0.00029325819839653988</v>
+        <v>0.00026882001519681897</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0079123251824827628</v>
+        <v>-0.0072529647506091588</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0025059826302062105</v>
+        <v>0.0022971507443557276</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0003392249769061384</v>
+        <v>-0.00031095622883060836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0024108665413013486</v>
+        <v>0.0022099609961929445</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.021198555981164685</v>
+        <v>-0.019432009649400922</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.0043587005829568426</v>
+        <v>-0.0039954755343771242</v>
       </c>
       <c r="D23" s="0">
-        <v>0.01390873130003567</v>
+        <v>0.012749670358366022</v>
       </c>
       <c r="E23" s="0">
-        <v>0.0088597468460168138</v>
+        <v>0.0081214346088487599</v>
       </c>
       <c r="F23" s="0">
-        <v>0.0088965098555891242</v>
+        <v>0.0081551340342899958</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.00091480526263135187</v>
+        <v>0.00083857149074539894</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0085887570632040278</v>
+        <v>-0.0078730273079370278</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.0037957211870255497</v>
+        <v>-0.0034794110881067042</v>
       </c>
       <c r="D24" s="0">
-        <v>0.00072315175290005307</v>
+        <v>0.00066288910682502089</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.005476788657566678</v>
+        <v>-0.0050203896027694733</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.0017817803858993647</v>
+        <v>-0.0016332986870744165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0011679839266046377</v>
+        <v>-0.0010706519327209063</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0019406758537193203</v>
+        <v>0.0017789528659093862</v>
       </c>
       <c r="C25" s="0">
-        <v>0.0041326681642887275</v>
+        <v>0.003788279150597984</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0026833722485896522</v>
+        <v>0.0024597578945405041</v>
       </c>
       <c r="E25" s="0">
-        <v>0.0044209674926784098</v>
+        <v>0.0040525535349551778</v>
       </c>
       <c r="F25" s="0">
-        <v>0.0017113651624521276</v>
+        <v>0.0015687513989144641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0083744898771596077</v>
+        <v>0.0076766157207295849</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0085825520608129036</v>
+        <v>0.0078673393890785065</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0030191139816808099</v>
+        <v>0.0027675211498740804</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0070466757190359997</v>
+        <v>0.006459452742449634</v>
       </c>
       <c r="E26" s="0">
-        <v>0.004970204245566559</v>
+        <v>0.0045560205584359997</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.0028700618001556433</v>
+        <v>-0.0026308899834759925</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0012880161621580538</v>
+        <v>0.0011806814819782102</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0027113145915586834</v>
+        <v>0.0024853717089288047</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0051835169847592316</v>
+        <v>0.0047515572360292968</v>
       </c>
       <c r="D27" s="0">
-        <v>0.00013395665569576609</v>
+        <v>0.00012279360105448001</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0060752452056799799</v>
+        <v>-0.0055689747718733335</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0042450694624607682</v>
+        <v>-0.0038913136739223697</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0078505403039564603</v>
+        <v>0.0071963286119600817</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0034742853817187891</v>
+        <v>-0.003184761599908853</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.0078836600575731275</v>
+        <v>-0.0072266883861087094</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0033918376309680642</v>
+        <v>-0.0031091844950540681</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.0056974993661028372</v>
+        <v>-0.0052227077522609411</v>
       </c>
       <c r="F28" s="0">
-        <v>0.001602617331517564</v>
+        <v>0.0014690658872244661</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0025665283102354053</v>
+        <v>-0.0023526509510490984</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0052252443556790873</v>
+        <v>-0.0047898073260391749</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.003999741318581912</v>
+        <v>-0.0036664295420334309</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.0009924155502295251</v>
+        <v>-0.00090971425437703923</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0032028721469715138</v>
+        <v>0.002935966134723883</v>
       </c>
       <c r="F29" s="0">
-        <v>0.010132379697597088</v>
+        <v>0.0092880147227973192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0039946849729458056</v>
+        <v>0.0036617945585337291</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0019171486562790663</v>
+        <v>-0.0017573862682558061</v>
       </c>
       <c r="C30" s="0">
-        <v>0.0026621059229754718</v>
+        <v>0.0024402637627275181</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0073696508479117462</v>
+        <v>-0.0067555132772524062</v>
       </c>
       <c r="E30" s="0">
-        <v>0.0044356609574000561</v>
+        <v>0.0040660225442834402</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.006053484314353888</v>
+        <v>-0.0055490272881576624</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiObjectLvl_Within-PLI_gamma_A/roiObjectLvl_Within-PLI_gamma_A.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_gamma_A/roiObjectLvl_Within-PLI_gamma_A.xlsx
@@ -81,7 +81,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
-    <col min="3" max="3" width="16.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="16.42578125" customWidth="true"/>
     <col min="5" max="5" width="16.42578125" customWidth="true"/>
     <col min="6" max="6" width="16.42578125" customWidth="true"/>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.010640881564794646</v>
+        <v>0.011608234434321407</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0024468285337850559</v>
+        <v>0.0026692674914018388</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0063943802548290518</v>
+        <v>-0.0069756875507225868</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0077746557560221807</v>
+        <v>0.0084814426429332679</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.0032079287028820569</v>
+        <v>-0.0034995585849622313</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0062601000227195669</v>
+        <v>0.0068292000247849594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0091562658342993486</v>
+        <v>0.0099886536374174661</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0016966690057665934</v>
+        <v>0.0018509116426544125</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.0048320052658745449</v>
+        <v>-0.005271278471863039</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0099696883584351192</v>
+        <v>0.010876023663747431</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0072311533308975495</v>
+        <v>-0.0078885309064337383</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0037758085690416388</v>
+        <v>-0.0041190638934999468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0035801009266482609</v>
+        <v>0.0039055646472526684</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0015500708292470466</v>
+        <v>0.0016909863591786367</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0056214408807848948</v>
+        <v>-0.0061324809608562791</v>
       </c>
       <c r="D4" s="0">
-        <v>0.0045933166404180381</v>
+        <v>0.0050108908804561425</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00028414938311965843</v>
+        <v>-0.00030998114522143294</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0042237053106617961</v>
+        <v>0.0046076785207219695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0056056722205790332</v>
+        <v>0.0061152787860862812</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0015436455653846382</v>
+        <v>-0.0016839769804196381</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0049088603150388987</v>
+        <v>-0.0053551203436787709</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.016302096767072588</v>
+        <v>-0.017784105564079222</v>
       </c>
       <c r="E5" s="0">
-        <v>0.01218792921758069</v>
+        <v>0.013295922782815328</v>
       </c>
       <c r="F5" s="0">
-        <v>0.014264170753940625</v>
+        <v>0.015560913549753391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0032141753156246233</v>
+        <v>-0.0035063730715905184</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0060553182972147845</v>
+        <v>-0.0066058017787797019</v>
       </c>
       <c r="C6" s="0">
-        <v>0.013374751159430209</v>
+        <v>0.014590637628469377</v>
       </c>
       <c r="D6" s="0">
-        <v>0.009444421891139726</v>
+        <v>0.010303005699425188</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0026654205225633831</v>
+        <v>0.0029077314791599862</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0041514297251012688</v>
+        <v>-0.004528832427383167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.00105130407108181</v>
+        <v>-0.0011468771684528256</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.015735876402969279</v>
+        <v>-0.017166410621421019</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.0060002125219516256</v>
+        <v>-0.0065456863875835991</v>
       </c>
       <c r="D7" s="0">
-        <v>0.010904071773636975</v>
+        <v>0.011895351025785816</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.002628403414505931</v>
+        <v>-0.0028673491794609374</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0058844632861195512</v>
+        <v>0.0064194144939486442</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0020239000418027508</v>
+        <v>-0.0022078909546939252</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0034483822225368221</v>
+        <v>0.0037618715154947024</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0066041486374474323</v>
+        <v>0.007204525786306315</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0033897038727956907</v>
+        <v>-0.0036978587703225818</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0060237922039163838</v>
+        <v>0.0065714096769997343</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0023924945045113999</v>
+        <v>0.002609994004921512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0042471765184627364</v>
+        <v>-0.0046332834746866114</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0029427572805653668</v>
+        <v>-0.003210280669707688</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0053961088168250071</v>
+        <v>0.0058866641638090633</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0016554474715275991</v>
+        <v>-0.0018059426962118708</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0073746231035232979</v>
+        <v>0.008045043385661782</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0033330693211826856</v>
+        <v>-0.0036360756231084146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0059573104604160321</v>
+        <v>0.0064988841386356688</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0065267335004177973</v>
+        <v>-0.0071200729095466375</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0067142119937151079</v>
+        <v>0.0073245949022346657</v>
       </c>
       <c r="D10" s="0">
-        <v>-1.5271809206768294e-05</v>
+        <v>-1.6660155498310347e-05</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.008039505171147654</v>
+        <v>-0.0087703692776156805</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0040134894537525168</v>
+        <v>0.0043783521313664198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.00078493198964210698</v>
+        <v>0.00085628944324597778</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0054764023585534005</v>
+        <v>0.005974257118421894</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.0050609615827007237</v>
+        <v>-0.0055210489993098577</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.00355005626744756</v>
+        <v>-0.0038727886553972801</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0030337014032665865</v>
+        <v>0.0033094924399272307</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0012414003959897724</v>
+        <v>-0.0013542549774433754</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0046732673067532426</v>
+        <v>-0.0050981097891853178</v>
       </c>
       <c r="B12" s="0">
-        <v>0.010059986556935477</v>
+        <v>0.010974530789384179</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0047283086102961613</v>
+        <v>-0.005158154847595825</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.0015384172992868872</v>
+        <v>-0.0016782734174038694</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0037809306974066481</v>
+        <v>-0.0041246516698981994</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0030333327434776125</v>
+        <v>0.0033090902656119636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0023254089329603767</v>
+        <v>-0.0025368097450476634</v>
       </c>
       <c r="B13" s="0">
-        <v>0.014742012975708624</v>
+        <v>0.016082195973500357</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.00095634617945833389</v>
+        <v>-0.0010432867412272229</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0067999482401656375</v>
+        <v>0.007418125352908006</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.0059737017768418665</v>
+        <v>-0.0065167655747365716</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0014735137732849179</v>
+        <v>0.0016074695708562792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090963344543399938</v>
+        <v>-0.009923273950189021</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0030241162487538997</v>
+        <v>0.0032990359077315623</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.0010714574379170894</v>
+        <v>-0.0011688626595459106</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0069508447065991241</v>
+        <v>0.0075827396799263702</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0063432998215606773</v>
+        <v>-0.0069199634417025646</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0071079003748085456</v>
+        <v>-0.0077540731361548099</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.010068251010280027</v>
+        <v>0.01098354655666911</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0017985333504657308</v>
+        <v>-0.0019620363823262543</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.0020480376233890929</v>
+        <v>-0.002234222861878965</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0053958829702537014</v>
+        <v>-0.0058864177857312627</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0047489571146860088</v>
+        <v>0.0051806804887483682</v>
       </c>
       <c r="F15" s="0">
-        <v>0.0029399670186419369</v>
+        <v>0.0032072367476093933</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0020671335586794626</v>
+        <v>-0.0022550547912867092</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.00039111214025405738</v>
+        <v>-0.00042666778936800709</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.0070269345631664981</v>
+        <v>-0.0076657467961815939</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0043072657489133526</v>
+        <v>-0.0046988353624509149</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0022647812502885334</v>
+        <v>-0.0024706704548601299</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.0023044778834776236</v>
+        <v>-0.0025139758728846828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0066880415612299848</v>
+        <v>0.0072960453395235769</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.0040747140452926656</v>
+        <v>-0.0044451425948647261</v>
       </c>
       <c r="C17" s="0">
-        <v>0.00042278303147866292</v>
+        <v>0.00046121785252220548</v>
       </c>
       <c r="D17" s="0">
-        <v>-3.688590645109513e-05</v>
+        <v>-4.023917067400018e-05</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0069821374169200534</v>
+        <v>0.0076168771820945835</v>
       </c>
       <c r="F17" s="0">
-        <v>0.0010686151990500492</v>
+        <v>0.0011657620353273113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0019572633274006351</v>
+        <v>0.002135196357164304</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0026005316950070134</v>
+        <v>-0.0028369436672803922</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0026778760350087416</v>
+        <v>0.0029213193109185742</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.008339244432594789</v>
+        <v>-0.009097357562830713</v>
       </c>
       <c r="E18" s="0">
-        <v>0.0055260469727343442</v>
+        <v>0.0060284148793465636</v>
       </c>
       <c r="F18" s="0">
-        <v>0.004064105513380864</v>
+        <v>0.0044335696509609918</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0037909286097692202</v>
+        <v>0.0041355584833845938</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0049805387731270967</v>
+        <v>0.0054333150252295626</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0023645324068029411</v>
+        <v>0.0025794898983305115</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0018671465535107651</v>
+        <v>0.0020368871492844887</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.00059736674643508236</v>
+        <v>-0.00065167281429276414</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.00078938385389999699</v>
+        <v>-0.00086114602243633764</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0058672732068177219</v>
+        <v>-0.0064006616801648153</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.0014500239042573027</v>
+        <v>-0.0015818442591898074</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.0055793586892620567</v>
+        <v>-0.0060865731155586023</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0074318560571757369</v>
+        <v>0.0081074793351008922</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.005103726118218882</v>
+        <v>-0.0055677012198751263</v>
       </c>
       <c r="F20" s="0">
-        <v>0.0028108344787190209</v>
+        <v>0.0030663648858753056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0036844058583188899</v>
+        <v>-0.0040193518454388066</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.012016853883749401</v>
+        <v>-0.01310929514590839</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.0073541450353044741</v>
+        <v>-0.0080227036748775765</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0067128872906904724</v>
+        <v>-0.0073231497716623462</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.0028085763926724572</v>
+        <v>-0.0030639015192790719</v>
       </c>
       <c r="F21" s="0">
-        <v>0.00042371962661819085</v>
+        <v>0.00046223959267435721</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.00074547053447301947</v>
+        <v>0.00081324058306150859</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.00097538931702580156</v>
+        <v>-0.0010640610731190436</v>
       </c>
       <c r="C22" s="0">
-        <v>0.00026882001519681897</v>
+        <v>0.00029325819839653988</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0072529647506091588</v>
+        <v>-0.0079123251824827628</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0022971507443557276</v>
+        <v>0.0025059826302062105</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.00031095622883060836</v>
+        <v>-0.0003392249769061384</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0022099609961929445</v>
+        <v>0.0024108665413013486</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.019432009649400922</v>
+        <v>-0.021198555981164685</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.0039954755343771242</v>
+        <v>-0.0043587005829568426</v>
       </c>
       <c r="D23" s="0">
-        <v>0.012749670358366022</v>
+        <v>0.01390873130003567</v>
       </c>
       <c r="E23" s="0">
-        <v>0.0081214346088487599</v>
+        <v>0.0088597468460168138</v>
       </c>
       <c r="F23" s="0">
-        <v>0.0081551340342899958</v>
+        <v>0.0088965098555891242</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.00083857149074539894</v>
+        <v>0.00091480526263135187</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0078730273079370278</v>
+        <v>-0.0085887570632040278</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.0034794110881067042</v>
+        <v>-0.0037957211870255497</v>
       </c>
       <c r="D24" s="0">
-        <v>0.00066288910682502089</v>
+        <v>0.00072315175290005307</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.0050203896027694733</v>
+        <v>-0.005476788657566678</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.0016332986870744165</v>
+        <v>-0.0017817803858993647</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0010706519327209063</v>
+        <v>-0.0011679839266046377</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0017789528659093862</v>
+        <v>0.0019406758537193203</v>
       </c>
       <c r="C25" s="0">
-        <v>0.003788279150597984</v>
+        <v>0.0041326681642887275</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0024597578945405041</v>
+        <v>0.0026833722485896522</v>
       </c>
       <c r="E25" s="0">
-        <v>0.0040525535349551778</v>
+        <v>0.0044209674926784098</v>
       </c>
       <c r="F25" s="0">
-        <v>0.0015687513989144641</v>
+        <v>0.0017113651624521276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0076766157207295849</v>
+        <v>0.0083744898771596077</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0078673393890785065</v>
+        <v>0.0085825520608129036</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0027675211498740804</v>
+        <v>0.0030191139816808099</v>
       </c>
       <c r="D26" s="0">
-        <v>0.006459452742449634</v>
+        <v>0.0070466757190359997</v>
       </c>
       <c r="E26" s="0">
-        <v>0.0045560205584359997</v>
+        <v>0.004970204245566559</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.0026308899834759925</v>
+        <v>-0.0028700618001556433</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0011806814819782102</v>
+        <v>0.0012880161621580538</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0024853717089288047</v>
+        <v>0.0027113145915586834</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0047515572360292968</v>
+        <v>0.0051835169847592316</v>
       </c>
       <c r="D27" s="0">
-        <v>0.00012279360105448001</v>
+        <v>0.00013395665569576609</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0055689747718733335</v>
+        <v>-0.0060752452056799799</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0038913136739223697</v>
+        <v>-0.0042450694624607682</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0071963286119600817</v>
+        <v>0.0078505403039564603</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.003184761599908853</v>
+        <v>-0.0034742853817187891</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.0072266883861087094</v>
+        <v>-0.0078836600575731275</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0031091844950540681</v>
+        <v>-0.0033918376309680642</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.0052227077522609411</v>
+        <v>-0.0056974993661028372</v>
       </c>
       <c r="F28" s="0">
-        <v>0.0014690658872244661</v>
+        <v>0.001602617331517564</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0023526509510490984</v>
+        <v>-0.0025665283102354053</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0047898073260391749</v>
+        <v>-0.0052252443556790873</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.0036664295420334309</v>
+        <v>-0.003999741318581912</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.00090971425437703923</v>
+        <v>-0.0009924155502295251</v>
       </c>
       <c r="E29" s="0">
-        <v>0.002935966134723883</v>
+        <v>0.0032028721469715138</v>
       </c>
       <c r="F29" s="0">
-        <v>0.0092880147227973192</v>
+        <v>0.010132379697597088</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0036617945585337291</v>
+        <v>0.0039946849729458056</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0017573862682558061</v>
+        <v>-0.0019171486562790663</v>
       </c>
       <c r="C30" s="0">
-        <v>0.0024402637627275181</v>
+        <v>0.0026621059229754718</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0067555132772524062</v>
+        <v>-0.0073696508479117462</v>
       </c>
       <c r="E30" s="0">
-        <v>0.0040660225442834402</v>
+        <v>0.0044356609574000561</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.0055490272881576624</v>
+        <v>-0.006053484314353888</v>
       </c>
     </row>
   </sheetData>
